--- a/郭秋霞/规划/3.10 e享课堂测试用例.xlsx
+++ b/郭秋霞/规划/3.10 e享课堂测试用例.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE87D8-5F8B-440B-ABA3-3CE0C3F85586}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A59502-8C56-4E10-A650-B4603C52488A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -8328,14 +8328,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8637,16 +8637,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9535,7 +9535,7 @@
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -9556,7 +9556,7 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9804,7 +9804,7 @@
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>164</v>
       </c>
@@ -9822,7 +9822,7 @@
       <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="3" t="s">
         <v>164</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3" t="s">
         <v>164</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="E14" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="43">
         <v>3</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -10234,7 +10234,7 @@
       <c r="A22" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>369</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -10260,7 +10260,7 @@
       <c r="A23" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="3" t="s">
         <v>350</v>
       </c>
@@ -10278,7 +10278,7 @@
       <c r="A24" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="3" t="s">
         <v>377</v>
       </c>
@@ -12631,7 +12631,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12688,7 +12688,7 @@
       <c r="E2" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="6" t="s">
         <v>149</v>
       </c>
@@ -12709,7 +12709,7 @@
       <c r="E3" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="6" t="s">
         <v>149</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="E4" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="6" t="s">
         <v>149</v>
       </c>
@@ -12751,7 +12751,7 @@
       <c r="E5" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="6" t="s">
         <v>149</v>
       </c>
